--- a/biology/Médecine/Herniorraphie/Herniorraphie.xlsx
+++ b/biology/Médecine/Herniorraphie/Herniorraphie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La herniorraphie est la cure chirurgicale d'une hernie abdominale qu'elle soit de la paroi abdominale ou du diaphragme.
 </t>
@@ -511,7 +523,9 @@
           <t>Technique opératoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acte chirurgical peut se pratiquer selon 2 modalités :
 une méthode dite « à ventre ouvert », par laparotomie ;
@@ -520,7 +534,7 @@
 l'intestin grêle dans la majorité des cas lorsqu'il s'agit d'une hernie inguinale ou crurale ;
 différents viscères sus-mésocoliques en cas de hernie diaphragmatique.
 Puis le chirurgien ferme l'orifice herniaire en respectant les orifices naturels (canal inguinal par exemple) et en renforçant par différentes techniques les tissus péri-herniaires pour éviter toute récidive. 
-Les techniques les plus utilisées sont la technique du Shouldice Hospital[Quoi ?] et celle de Mac Vay[Quoi ?][réf. nécessaire],[1].
+Les techniques les plus utilisées sont la technique du Shouldice Hospital[Quoi ?] et celle de Mac Vay[Quoi ?][réf. nécessaire],.
 En cas de fragilité manifeste des tissus avoisinants, laissant supposer un risque important de récidive, le chirurgien peut mettre en place un renfort prothétique ; on parle alors de hernioplastie.
 </t>
         </is>
